--- a/natmiOut/OldD7/LR-pairs_lrc2p/Slit1-Robo2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Slit1-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Slit1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.160761453966503</v>
+        <v>0.1784056666666667</v>
       </c>
       <c r="H2">
-        <v>0.160761453966503</v>
+        <v>0.5352169999999999</v>
       </c>
       <c r="I2">
-        <v>0.1055282256891308</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="J2">
-        <v>0.1055282256891308</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.31562588470531</v>
+        <v>1.655628666666667</v>
       </c>
       <c r="N2">
-        <v>1.31562588470531</v>
+        <v>4.966886000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9788840386998182</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9788840386998183</v>
       </c>
       <c r="Q2">
-        <v>0.2115019301011924</v>
+        <v>0.2953735360291112</v>
       </c>
       <c r="R2">
-        <v>0.2115019301011924</v>
+        <v>2.658361824262</v>
       </c>
       <c r="S2">
-        <v>0.1055282256891308</v>
+        <v>0.09893196243996571</v>
       </c>
       <c r="T2">
-        <v>0.1055282256891308</v>
+        <v>0.09893196243996571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.615857643459696</v>
+        <v>0.1784056666666667</v>
       </c>
       <c r="H3">
-        <v>0.615857643459696</v>
+        <v>0.5352169999999999</v>
       </c>
       <c r="I3">
-        <v>0.4042658410201534</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="J3">
-        <v>0.4042658410201534</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.31562588470531</v>
+        <v>0.01121666666666667</v>
       </c>
       <c r="N3">
-        <v>1.31562588470531</v>
+        <v>0.03365</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.006631810736596105</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.006631810736596105</v>
       </c>
       <c r="Q3">
-        <v>0.8102382570291898</v>
+        <v>0.002001116894444444</v>
       </c>
       <c r="R3">
-        <v>0.8102382570291898</v>
+        <v>0.01801005205</v>
       </c>
       <c r="S3">
-        <v>0.4042658410201534</v>
+        <v>0.0006702510458474074</v>
       </c>
       <c r="T3">
-        <v>0.4042658410201534</v>
+        <v>0.0006702510458474073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.1784056666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.5352169999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.1010660696555743</v>
+      </c>
+      <c r="J4">
+        <v>0.1010660696555743</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.02449766666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.073493</v>
+      </c>
+      <c r="O4">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="P4">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="Q4">
+        <v>0.004370522553444445</v>
+      </c>
+      <c r="R4">
+        <v>0.039334702981</v>
+      </c>
+      <c r="S4">
+        <v>0.001463856169761174</v>
+      </c>
+      <c r="T4">
+        <v>0.001463856169761174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.6251996666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.875599</v>
+      </c>
+      <c r="I5">
+        <v>0.3541730161409774</v>
+      </c>
+      <c r="J5">
+        <v>0.3541730161409773</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.655628666666667</v>
+      </c>
+      <c r="N5">
+        <v>4.966886000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.9788840386998182</v>
+      </c>
+      <c r="P5">
+        <v>0.9788840386998183</v>
+      </c>
+      <c r="Q5">
+        <v>1.035098490523778</v>
+      </c>
+      <c r="R5">
+        <v>9.315886414714001</v>
+      </c>
+      <c r="S5">
+        <v>0.3466943124385758</v>
+      </c>
+      <c r="T5">
+        <v>0.3466943124385758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.6251996666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.875599</v>
+      </c>
+      <c r="I6">
+        <v>0.3541730161409774</v>
+      </c>
+      <c r="J6">
+        <v>0.3541730161409773</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01121666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.03365</v>
+      </c>
+      <c r="O6">
+        <v>0.006631810736596105</v>
+      </c>
+      <c r="P6">
+        <v>0.006631810736596105</v>
+      </c>
+      <c r="Q6">
+        <v>0.00701265626111111</v>
+      </c>
+      <c r="R6">
+        <v>0.06311390635</v>
+      </c>
+      <c r="S6">
+        <v>0.002348808411056359</v>
+      </c>
+      <c r="T6">
+        <v>0.002348808411056359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6251996666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.875599</v>
+      </c>
+      <c r="I7">
+        <v>0.3541730161409774</v>
+      </c>
+      <c r="J7">
+        <v>0.3541730161409773</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.02449766666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.073493</v>
+      </c>
+      <c r="O7">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="P7">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="Q7">
+        <v>0.01531593303411111</v>
+      </c>
+      <c r="R7">
+        <v>0.137843397307</v>
+      </c>
+      <c r="S7">
+        <v>0.005129895291345172</v>
+      </c>
+      <c r="T7">
+        <v>0.005129895291345172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.845399</v>
+      </c>
+      <c r="H8">
+        <v>2.536197</v>
+      </c>
+      <c r="I8">
+        <v>0.4789150244896156</v>
+      </c>
+      <c r="J8">
+        <v>0.4789150244896155</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.655628666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.966886000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.9788840386998182</v>
+      </c>
+      <c r="P8">
+        <v>0.9788840386998183</v>
+      </c>
+      <c r="Q8">
+        <v>1.399666819171334</v>
+      </c>
+      <c r="R8">
+        <v>12.597001372542</v>
+      </c>
+      <c r="S8">
+        <v>0.4688022733664173</v>
+      </c>
+      <c r="T8">
+        <v>0.4688022733664173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.845399</v>
+      </c>
+      <c r="H9">
+        <v>2.536197</v>
+      </c>
+      <c r="I9">
+        <v>0.4789150244896156</v>
+      </c>
+      <c r="J9">
+        <v>0.4789150244896155</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01121666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.03365</v>
+      </c>
+      <c r="O9">
+        <v>0.006631810736596105</v>
+      </c>
+      <c r="P9">
+        <v>0.006631810736596105</v>
+      </c>
+      <c r="Q9">
+        <v>0.009482558783333333</v>
+      </c>
+      <c r="R9">
+        <v>0.08534302905</v>
+      </c>
+      <c r="S9">
+        <v>0.003176073801327419</v>
+      </c>
+      <c r="T9">
+        <v>0.003176073801327419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.845399</v>
+      </c>
+      <c r="H10">
+        <v>2.536197</v>
+      </c>
+      <c r="I10">
+        <v>0.4789150244896156</v>
+      </c>
+      <c r="J10">
+        <v>0.4789150244896155</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.02449766666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.073493</v>
+      </c>
+      <c r="O10">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="P10">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="Q10">
+        <v>0.02071030290233333</v>
+      </c>
+      <c r="R10">
+        <v>0.186392726121</v>
+      </c>
+      <c r="S10">
+        <v>0.006936677321870907</v>
+      </c>
+      <c r="T10">
+        <v>0.006936677321870907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.746778580462184</v>
-      </c>
-      <c r="H4">
-        <v>0.746778580462184</v>
-      </c>
-      <c r="I4">
-        <v>0.4902059332907158</v>
-      </c>
-      <c r="J4">
-        <v>0.4902059332907158</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.31562588470531</v>
-      </c>
-      <c r="N4">
-        <v>1.31562588470531</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.9824812305995364</v>
-      </c>
-      <c r="R4">
-        <v>0.9824812305995364</v>
-      </c>
-      <c r="S4">
-        <v>0.4902059332907158</v>
-      </c>
-      <c r="T4">
-        <v>0.4902059332907158</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1162336666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.348701</v>
+      </c>
+      <c r="I11">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="J11">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.655628666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.966886000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.9788840386998182</v>
+      </c>
+      <c r="P11">
+        <v>0.9788840386998183</v>
+      </c>
+      <c r="Q11">
+        <v>0.1924397905651111</v>
+      </c>
+      <c r="R11">
+        <v>1.731958115086</v>
+      </c>
+      <c r="S11">
+        <v>0.0644554904548594</v>
+      </c>
+      <c r="T11">
+        <v>0.0644554904548594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1162336666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.348701</v>
+      </c>
+      <c r="I12">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="J12">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01121666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.03365</v>
+      </c>
+      <c r="O12">
+        <v>0.006631810736596105</v>
+      </c>
+      <c r="P12">
+        <v>0.006631810736596105</v>
+      </c>
+      <c r="Q12">
+        <v>0.001303754294444444</v>
+      </c>
+      <c r="R12">
+        <v>0.01173378865</v>
+      </c>
+      <c r="S12">
+        <v>0.0004366774783649189</v>
+      </c>
+      <c r="T12">
+        <v>0.0004366774783649189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1162336666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.348701</v>
+      </c>
+      <c r="I13">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="J13">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.02449766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.073493</v>
+      </c>
+      <c r="O13">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="P13">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="Q13">
+        <v>0.002847453621444445</v>
+      </c>
+      <c r="R13">
+        <v>0.025627082593</v>
+      </c>
+      <c r="S13">
+        <v>0.0009537217806084098</v>
+      </c>
+      <c r="T13">
+        <v>0.0009537217806084099</v>
       </c>
     </row>
   </sheetData>
